--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,115 +481,80 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Round_7</t>
+          <t>total_score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Round_8</t>
+          <t>average_score</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>total_score</t>
+          <t>top_participant1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>average_score</t>
+          <t>top_participant2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>top_participant1</t>
+          <t>top_participant3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>top_participant2</t>
+          <t>top_participant4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>top_participant3</t>
+          <t>top_participant5</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>top_participant4</t>
+          <t>top_participant6</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>top_participant5</t>
+          <t>top_participant1_dummy</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>top_participant6</t>
+          <t>top_participant2_dummy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>top_participant7</t>
+          <t>top_participant3_dummy</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>top_participant8</t>
+          <t>top_participant4_dummy</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>top_participant1_dummy</t>
+          <t>top_participant5_dummy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>top_participant2_dummy</t>
+          <t>top_participant6_dummy</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>top_participant3_dummy</t>
+          <t>total_top_positions</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant4_dummy</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant5_dummy</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant6_dummy</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant7_dummy</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant8_dummy</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>total_top_positions</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Average No. Of Top Scores For Team</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>final_evaluation</t>
         </is>
@@ -610,37 +575,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.625</v>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -651,16 +616,16 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
@@ -670,30 +635,9 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AF2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -715,31 +659,31 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>18</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.25</v>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -753,16 +697,16 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
@@ -772,143 +716,101 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AF3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inizio</t>
+          <t>Cyber</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chocolate Lovers</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pocky Lovers</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.5</v>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyber</t>
+          <t>Nozomi</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -916,136 +818,115 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.125</v>
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nozomi</t>
+          <t>Inizio</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chocolate Lovers</t>
+          <t>Pocky Lovers</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>41</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.125</v>
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -1054,55 +935,34 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -575,31 +575,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>6.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -611,13 +611,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -629,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -656,34 +656,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>4.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>6.833333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -818,37 +818,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -860,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>

--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,95 +466,50 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Round_4</t>
+          <t>total_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Round_5</t>
+          <t>average_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Round_6</t>
+          <t>top_participant1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>total_score</t>
+          <t>top_participant2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>average_score</t>
+          <t>top_participant3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>top_participant1</t>
+          <t>top_participant1_dummy</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>top_participant2</t>
+          <t>top_participant2_dummy</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>top_participant3</t>
+          <t>top_participant3_dummy</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>top_participant4</t>
+          <t>total_top_positions</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant1_dummy</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant2_dummy</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant3_dummy</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant4_dummy</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant5_dummy</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>top_participant6_dummy</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>total_top_positions</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>final_evaluation</t>
         </is>
@@ -578,66 +533,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,69 +584,42 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -737,70 +638,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -818,70 +692,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,67 +749,40 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -530,25 +530,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -584,22 +584,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>6.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>6.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,50 +466,80 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Round_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Round_5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>total_score</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>average_score</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>top_participant1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>top_participant2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>top_participant3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant5</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>top_participant1_dummy</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>top_participant2_dummy</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>top_participant3_dummy</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant4_dummy</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant5_dummy</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>total_top_positions</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>final_evaluation</t>
         </is>
@@ -530,42 +560,60 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.8</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -584,43 +632,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -638,42 +704,60 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.4</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,43 +776,61 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.2</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -746,43 +848,61 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.2</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dice_scores_processed.xlsx
+++ b/dice_scores_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,70 +476,295 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Round_6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Round_7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Round_8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Round_9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Round_10</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Round_11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Round_12</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Round_13</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Round_14</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Round_15</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Round_16</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Round_17</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Round_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Round_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Round_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>total_score</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>average_score</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>top_participant1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>top_participant2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>top_participant3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>top_participant4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>top_participant5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant13</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant14</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant15</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant16</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant17</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant18</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant19</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant20</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>top_participant1_dummy</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>top_participant2_dummy</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>top_participant3_dummy</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>top_participant4_dummy</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>top_participant5_dummy</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant6_dummy</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant7_dummy</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant8_dummy</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant9_dummy</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant10_dummy</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant11_dummy</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant12_dummy</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant13_dummy</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant14_dummy</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant15_dummy</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant16_dummy</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant17_dummy</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant18_dummy</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant19_dummy</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>top_participant20_dummy</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>total_top_positions</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>final_evaluation</t>
         </is>
@@ -548,7 +773,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Altan</t>
+          <t>Yamai</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,71 +781,206 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pocky Lovers</t>
+          <t>Yamai Syndicate</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Goromi</t>
+          <t>Kalani</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -628,280 +988,199 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pocky Lovers</t>
+          <t>Yamai Syndicate</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cyber</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chocolate Lovers</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nozomi</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chocolate Lovers</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Inizio</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pocky Lovers</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="X3" t="n">
+        <v>114</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BO3" t="n">
         <v>1</v>
       </c>
     </row>
